--- a/data/trans_orig/P0801-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P0801-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B88F4C13-FE1D-4AF7-9D01-B562D7F9E35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16783953-6A2A-41C5-A503-D682A4558D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C5BBC1E3-17AA-4442-A918-AAB14F2B1865}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3BD7DBA3-3CA1-47F9-A217-017F79A73EEF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="606">
   <si>
     <t>Población según limitación a hacer esfuerzos moderados en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1798 +77,1786 @@
     <t>87,74%</t>
   </si>
   <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
   </si>
   <si>
     <t>71,65%</t>
   </si>
   <si>
-    <t>63,04%</t>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>SI, LIMITA UN POCO</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>SI, LIMITA MUCHO</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según limitación a hacer esfuerzos moderados en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>Población según limitación a hacer esfuerzos moderados en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
   </si>
   <si>
     <t>78,89%</t>
   </si>
   <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>SI, LIMITA UN POCO</t>
-  </si>
-  <si>
-    <t>9,54%</t>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>Población según limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
   </si>
   <si>
     <t>5,11%</t>
   </si>
   <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>SI, LIMITA MUCHO</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
   </si>
   <si>
     <t>6,22%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según limitación a hacer esfuerzos moderados en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>Población según limitación a hacer esfuerzos moderados en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>Población según limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
   </si>
 </sst>
 </file>
@@ -2280,7 +2268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003379C0-A5D2-4C74-B05A-45603E7CD9F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41CF3EE-33F0-44B3-94B9-48F52609ACE4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2873,7 +2861,7 @@
         <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>152</v>
@@ -2882,13 +2870,13 @@
         <v>163932</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>226</v>
@@ -2897,13 +2885,13 @@
         <v>239253</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,13 +2906,13 @@
         <v>32657</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>38</v>
@@ -2933,13 +2921,13 @@
         <v>42136</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>69</v>
@@ -2948,13 +2936,13 @@
         <v>74793</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,7 +2998,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3022,13 +3010,13 @@
         <v>595653</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>528</v>
@@ -3037,13 +3025,13 @@
         <v>516862</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>1087</v>
@@ -3052,13 +3040,13 @@
         <v>1112515</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3061,13 @@
         <v>61279</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>122</v>
@@ -3088,13 +3076,13 @@
         <v>120266</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>182</v>
@@ -3103,13 +3091,13 @@
         <v>181545</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3112,13 @@
         <v>21577</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>46</v>
@@ -3139,13 +3127,13 @@
         <v>46713</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>68</v>
@@ -3154,13 +3142,13 @@
         <v>68291</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,7 +3204,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3228,13 +3216,13 @@
         <v>841175</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>801</v>
@@ -3243,13 +3231,13 @@
         <v>830762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>1682</v>
@@ -3258,13 +3246,13 @@
         <v>1671937</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,13 +3267,13 @@
         <v>74026</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>136</v>
@@ -3294,13 +3282,13 @@
         <v>144745</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>219</v>
@@ -3309,13 +3297,13 @@
         <v>218771</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,13 +3318,13 @@
         <v>27022</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>60</v>
@@ -3345,13 +3333,13 @@
         <v>63104</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>90</v>
@@ -3360,13 +3348,13 @@
         <v>90126</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3422,13 @@
         <v>2910780</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H24" s="7">
         <v>2599</v>
@@ -3449,25 +3437,25 @@
         <v>2655183</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M24" s="7">
         <v>5437</v>
       </c>
       <c r="N24" s="7">
-        <v>5565961</v>
+        <v>5565962</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>159</v>
@@ -3572,7 +3560,7 @@
         <v>176</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>116</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,7 +3602,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -3628,7 +3616,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3649,7 +3637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9D26FE-285D-4FE6-9954-1C67DEF51E6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EC2DE0-859B-420D-B38F-CCF6148958E7}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3666,7 +3654,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3773,13 +3761,13 @@
         <v>97134</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>64</v>
@@ -3788,13 +3776,13 @@
         <v>72006</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M4" s="7">
         <v>164</v>
@@ -3803,13 +3791,13 @@
         <v>169139</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,13 +3812,13 @@
         <v>13358</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -3839,13 +3827,13 @@
         <v>26470</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -3854,13 +3842,13 @@
         <v>39829</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,13 +3863,13 @@
         <v>5273</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="H6" s="7">
         <v>12</v>
@@ -3893,10 +3881,10 @@
         <v>200</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M6" s="7">
         <v>18</v>
@@ -3905,13 +3893,13 @@
         <v>18702</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,13 +3967,13 @@
         <v>498207</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c r="H8" s="7">
         <v>408</v>
@@ -3994,13 +3982,13 @@
         <v>433337</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M8" s="7">
         <v>881</v>
@@ -4009,13 +3997,13 @@
         <v>931544</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,13 +4018,13 @@
         <v>56511</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H9" s="7">
         <v>94</v>
@@ -4045,13 +4033,13 @@
         <v>99727</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M9" s="7">
         <v>143</v>
@@ -4060,13 +4048,13 @@
         <v>156238</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4081,13 +4069,13 @@
         <v>32986</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>221</v>
+        <v>94</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -4096,13 +4084,13 @@
         <v>52081</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="M10" s="7">
         <v>79</v>
@@ -4290,10 +4278,10 @@
         <v>247</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>144</v>
+        <v>248</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>161</v>
+        <v>249</v>
       </c>
       <c r="H14" s="7">
         <v>90</v>
@@ -4302,13 +4290,13 @@
         <v>98321</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M14" s="7">
         <v>140</v>
@@ -4317,13 +4305,13 @@
         <v>154201</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4379,7 +4367,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4391,13 +4379,13 @@
         <v>666262</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H16" s="7">
         <v>539</v>
@@ -4406,13 +4394,13 @@
         <v>593906</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M16" s="7">
         <v>1148</v>
@@ -4421,13 +4409,13 @@
         <v>1260168</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4442,13 +4430,13 @@
         <v>58695</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H17" s="7">
         <v>101</v>
@@ -4457,13 +4445,13 @@
         <v>109772</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M17" s="7">
         <v>155</v>
@@ -4472,13 +4460,13 @@
         <v>168467</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,13 +4481,13 @@
         <v>32667</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H18" s="7">
         <v>65</v>
@@ -4508,13 +4496,13 @@
         <v>73496</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M18" s="7">
         <v>91</v>
@@ -4523,13 +4511,13 @@
         <v>106162</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4585,7 +4573,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4597,13 +4585,13 @@
         <v>807999</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>78</v>
+        <v>282</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H20" s="7">
         <v>747</v>
@@ -4612,13 +4600,13 @@
         <v>778482</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M20" s="7">
         <v>1530</v>
@@ -4627,13 +4615,13 @@
         <v>1586481</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,13 +4636,13 @@
         <v>99795</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H21" s="7">
         <v>177</v>
@@ -4663,13 +4651,13 @@
         <v>189271</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M21" s="7">
         <v>267</v>
@@ -4678,13 +4666,13 @@
         <v>289066</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4699,13 +4687,13 @@
         <v>39946</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H22" s="7">
         <v>79</v>
@@ -4714,13 +4702,13 @@
         <v>84147</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M22" s="7">
         <v>116</v>
@@ -4729,13 +4717,13 @@
         <v>124093</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>51</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,13 +4791,13 @@
         <v>2925391</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H24" s="7">
         <v>2468</v>
@@ -4818,13 +4806,13 @@
         <v>2656907</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="M24" s="7">
         <v>5224</v>
@@ -4833,13 +4821,13 @@
         <v>5582298</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4854,13 +4842,13 @@
         <v>334635</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H25" s="7">
         <v>535</v>
@@ -4869,13 +4857,13 @@
         <v>579929</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M25" s="7">
         <v>839</v>
@@ -4884,13 +4872,13 @@
         <v>914564</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,13 +4893,13 @@
         <v>166753</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="H26" s="7">
         <v>295</v>
@@ -4920,13 +4908,13 @@
         <v>321473</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="M26" s="7">
         <v>444</v>
@@ -4935,13 +4923,13 @@
         <v>488226</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>274</v>
+        <v>136</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4997,7 +4985,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5018,7 +5006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6010F3-DC28-4787-BBF7-7E319A7369B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB0DE76-BDC8-44A6-97E2-1484FE9C7B2D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5035,7 +5023,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5142,13 +5130,13 @@
         <v>91003</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H4" s="7">
         <v>87</v>
@@ -5157,13 +5145,13 @@
         <v>83901</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M4" s="7">
         <v>174</v>
@@ -5172,13 +5160,13 @@
         <v>174904</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>230</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,13 +5181,13 @@
         <v>19251</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -5208,13 +5196,13 @@
         <v>17059</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>105</v>
+        <v>346</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -5223,13 +5211,13 @@
         <v>36310</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>225</v>
+        <v>349</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,13 +5232,13 @@
         <v>6291</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -5259,13 +5247,13 @@
         <v>12400</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="M6" s="7">
         <v>18</v>
@@ -5274,13 +5262,13 @@
         <v>18692</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,13 +5336,13 @@
         <v>479205</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="H8" s="7">
         <v>411</v>
@@ -5363,13 +5351,13 @@
         <v>408630</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="M8" s="7">
         <v>871</v>
@@ -5378,13 +5366,13 @@
         <v>887835</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5399,13 +5387,13 @@
         <v>52152</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>106</v>
+        <v>369</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>137</v>
+        <v>370</v>
       </c>
       <c r="H9" s="7">
         <v>90</v>
@@ -5414,13 +5402,13 @@
         <v>96041</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>371</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>266</v>
+        <v>138</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="M9" s="7">
         <v>140</v>
@@ -5429,13 +5417,13 @@
         <v>148193</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5450,13 +5438,13 @@
         <v>26897</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>369</v>
+        <v>119</v>
       </c>
       <c r="H10" s="7">
         <v>50</v>
@@ -5465,13 +5453,13 @@
         <v>54808</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="M10" s="7">
         <v>79</v>
@@ -5480,13 +5468,13 @@
         <v>81705</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>375</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5554,13 +5542,13 @@
         <v>871575</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="H12" s="7">
         <v>767</v>
@@ -5569,13 +5557,13 @@
         <v>798336</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="M12" s="7">
         <v>1568</v>
@@ -5584,13 +5572,13 @@
         <v>1669912</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5605,13 +5593,13 @@
         <v>108963</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="H13" s="7">
         <v>135</v>
@@ -5620,13 +5608,13 @@
         <v>154537</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="M13" s="7">
         <v>243</v>
@@ -5635,13 +5623,13 @@
         <v>263499</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,13 +5644,13 @@
         <v>41893</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>93</v>
+        <v>402</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>395</v>
+        <v>247</v>
       </c>
       <c r="H14" s="7">
         <v>75</v>
@@ -5671,13 +5659,13 @@
         <v>90040</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>189</v>
+        <v>279</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="M14" s="7">
         <v>117</v>
@@ -5686,13 +5674,13 @@
         <v>131933</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>398</v>
+        <v>254</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5748,7 +5736,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5760,13 +5748,13 @@
         <v>661929</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>159</v>
+        <v>408</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>181</v>
+        <v>409</v>
       </c>
       <c r="H16" s="7">
         <v>596</v>
@@ -5775,13 +5763,13 @@
         <v>621668</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="M16" s="7">
         <v>1199</v>
@@ -5790,13 +5778,13 @@
         <v>1283597</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>407</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5811,13 +5799,13 @@
         <v>68469</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="H17" s="7">
         <v>87</v>
@@ -5826,13 +5814,13 @@
         <v>101277</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="M17" s="7">
         <v>151</v>
@@ -5841,13 +5829,13 @@
         <v>169747</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5865,10 +5853,10 @@
         <v>37</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>418</v>
+        <v>172</v>
       </c>
       <c r="H18" s="7">
         <v>53</v>
@@ -5877,13 +5865,13 @@
         <v>62066</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>420</v>
+        <v>80</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="M18" s="7">
         <v>82</v>
@@ -5892,13 +5880,13 @@
         <v>91219</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>423</v>
+        <v>376</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5954,7 +5942,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5966,13 +5954,13 @@
         <v>820210</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="H20" s="7">
         <v>780</v>
@@ -5981,13 +5969,13 @@
         <v>829996</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="M20" s="7">
         <v>1592</v>
@@ -5996,13 +5984,13 @@
         <v>1650207</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,13 +6005,13 @@
         <v>75316</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>435</v>
+        <v>136</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>436</v>
+        <v>266</v>
       </c>
       <c r="H21" s="7">
         <v>115</v>
@@ -6032,13 +6020,13 @@
         <v>133712</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>113</v>
+        <v>441</v>
       </c>
       <c r="M21" s="7">
         <v>193</v>
@@ -6047,13 +6035,13 @@
         <v>209028</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,13 +6056,13 @@
         <v>42041</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>443</v>
+        <v>377</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H22" s="7">
         <v>64</v>
@@ -6083,13 +6071,13 @@
         <v>80071</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>447</v>
+        <v>250</v>
       </c>
       <c r="M22" s="7">
         <v>106</v>
@@ -6098,13 +6086,13 @@
         <v>122111</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,13 +6160,13 @@
         <v>2923923</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H24" s="7">
         <v>2641</v>
@@ -6187,13 +6175,13 @@
         <v>2742531</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M24" s="7">
         <v>5404</v>
@@ -6202,13 +6190,13 @@
         <v>5666454</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,13 +6211,13 @@
         <v>324151</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>385</v>
+        <v>462</v>
       </c>
       <c r="H25" s="7">
         <v>444</v>
@@ -6238,13 +6226,13 @@
         <v>502626</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>463</v>
+        <v>420</v>
       </c>
       <c r="M25" s="7">
         <v>763</v>
@@ -6253,13 +6241,13 @@
         <v>826777</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,13 +6262,13 @@
         <v>146276</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>468</v>
+        <v>122</v>
       </c>
       <c r="H26" s="7">
         <v>253</v>
@@ -6295,7 +6283,7 @@
         <v>470</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>248</v>
+        <v>460</v>
       </c>
       <c r="M26" s="7">
         <v>402</v>
@@ -6304,13 +6292,13 @@
         <v>445660</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,7 +6354,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6387,7 +6375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBADF8D0-A46D-432B-B7BF-A9BB7052247E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59792301-DE86-4715-B8E0-C67C02CE4B34}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6404,7 +6392,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6511,13 +6499,13 @@
         <v>74860</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>477</v>
+        <v>207</v>
       </c>
       <c r="H4" s="7">
         <v>161</v>
@@ -6526,13 +6514,13 @@
         <v>94960</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="M4" s="7">
         <v>245</v>
@@ -6541,13 +6529,13 @@
         <v>169820</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6562,13 +6550,13 @@
         <v>16622</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H5" s="7">
         <v>49</v>
@@ -6577,13 +6565,13 @@
         <v>20655</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="M5" s="7">
         <v>70</v>
@@ -6592,13 +6580,13 @@
         <v>37277</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>490</v>
+        <v>215</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6613,13 +6601,13 @@
         <v>10500</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="H6" s="7">
         <v>33</v>
@@ -6628,13 +6616,13 @@
         <v>15118</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>495</v>
+        <v>329</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="M6" s="7">
         <v>46</v>
@@ -6643,13 +6631,13 @@
         <v>25618</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>241</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6717,13 +6705,13 @@
         <v>467517</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="H8" s="7">
         <v>733</v>
@@ -6732,13 +6720,13 @@
         <v>490651</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="M8" s="7">
         <v>1238</v>
@@ -6747,13 +6735,13 @@
         <v>958167</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6768,13 +6756,13 @@
         <v>49428</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="H9" s="7">
         <v>156</v>
@@ -6783,13 +6771,13 @@
         <v>77105</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="M9" s="7">
         <v>221</v>
@@ -6798,13 +6786,13 @@
         <v>126532</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>397</v>
+        <v>353</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>514</v>
+        <v>368</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6819,13 +6807,13 @@
         <v>32879</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>515</v>
+        <v>448</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>516</v>
+        <v>91</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="H10" s="7">
         <v>109</v>
@@ -6834,13 +6822,13 @@
         <v>52211</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>520</v>
+        <v>330</v>
       </c>
       <c r="M10" s="7">
         <v>151</v>
@@ -6849,13 +6837,13 @@
         <v>85090</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>145</v>
+        <v>515</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>522</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6923,13 +6911,13 @@
         <v>873234</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="H12" s="7">
         <v>1123</v>
@@ -6938,13 +6926,13 @@
         <v>828639</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>527</v>
+        <v>339</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="M12" s="7">
         <v>1957</v>
@@ -6953,13 +6941,13 @@
         <v>1701873</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>531</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6974,13 +6962,13 @@
         <v>130025</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="H13" s="7">
         <v>258</v>
@@ -6989,13 +6977,13 @@
         <v>153137</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="M13" s="7">
         <v>340</v>
@@ -7004,13 +6992,13 @@
         <v>283162</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>397</v>
+        <v>530</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7025,13 +7013,13 @@
         <v>35989</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>542</v>
+        <v>147</v>
       </c>
       <c r="H14" s="7">
         <v>135</v>
@@ -7040,13 +7028,13 @@
         <v>77698</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>174</v>
+        <v>535</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>544</v>
+        <v>461</v>
       </c>
       <c r="M14" s="7">
         <v>183</v>
@@ -7058,10 +7046,10 @@
         <v>172</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>89</v>
+        <v>536</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7117,7 +7105,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7129,13 +7117,13 @@
         <v>597101</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>547</v>
+        <v>73</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="H16" s="7">
         <v>784</v>
@@ -7144,13 +7132,13 @@
         <v>711867</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>432</v>
+        <v>540</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="M16" s="7">
         <v>1322</v>
@@ -7159,13 +7147,13 @@
         <v>1308967</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>551</v>
+        <v>230</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>210</v>
+        <v>543</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7180,13 +7168,13 @@
         <v>102099</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>225</v>
+        <v>546</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="H17" s="7">
         <v>181</v>
@@ -7195,13 +7183,13 @@
         <v>110210</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>271</v>
+        <v>548</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="M17" s="7">
         <v>288</v>
@@ -7210,13 +7198,13 @@
         <v>212309</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7231,13 +7219,13 @@
         <v>29572</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>144</v>
+        <v>554</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="H18" s="7">
         <v>82</v>
@@ -7246,13 +7234,13 @@
         <v>52294</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>515</v>
+        <v>448</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="M18" s="7">
         <v>113</v>
@@ -7261,13 +7249,13 @@
         <v>81866</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>22</v>
+        <v>559</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7323,7 +7311,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7335,13 +7323,13 @@
         <v>821057</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H20" s="7">
         <v>1128</v>
@@ -7350,13 +7338,13 @@
         <v>872598</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>475</v>
+        <v>312</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="M20" s="7">
         <v>1952</v>
@@ -7365,13 +7353,13 @@
         <v>1693656</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7386,13 +7374,13 @@
         <v>101737</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>522</v>
+        <v>571</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="H21" s="7">
         <v>278</v>
@@ -7401,13 +7389,13 @@
         <v>177917</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>576</v>
+        <v>420</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="M21" s="7">
         <v>403</v>
@@ -7416,13 +7404,13 @@
         <v>279655</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7437,13 +7425,13 @@
         <v>42609</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>584</v>
+        <v>355</v>
       </c>
       <c r="H22" s="7">
         <v>156</v>
@@ -7452,13 +7440,13 @@
         <v>99916</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>585</v>
+        <v>549</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>543</v>
+        <v>379</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="M22" s="7">
         <v>213</v>
@@ -7467,13 +7455,13 @@
         <v>142525</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7541,13 +7529,13 @@
         <v>2833769</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="H24" s="7">
         <v>3929</v>
@@ -7556,13 +7544,13 @@
         <v>2998714</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>595</v>
+        <v>458</v>
       </c>
       <c r="M24" s="7">
         <v>6714</v>
@@ -7571,13 +7559,13 @@
         <v>5832483</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>546</v>
+        <v>591</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7592,13 +7580,13 @@
         <v>399910</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="H25" s="7">
         <v>922</v>
@@ -7607,13 +7595,13 @@
         <v>539024</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>271</v>
+        <v>596</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="M25" s="7">
         <v>1322</v>
@@ -7622,13 +7610,13 @@
         <v>938934</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7643,13 +7631,13 @@
         <v>151549</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>605</v>
+        <v>94</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H26" s="7">
         <v>515</v>
@@ -7658,13 +7646,13 @@
         <v>297238</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="M26" s="7">
         <v>706</v>
@@ -7673,13 +7661,13 @@
         <v>448787</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>174</v>
+        <v>603</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>325</v>
+        <v>604</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7735,7 +7723,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P0801-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P0801-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16783953-6A2A-41C5-A503-D682A4558D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{174DA1A3-A27A-4AE7-BF0A-0B003A522A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3BD7DBA3-3CA1-47F9-A217-017F79A73EEF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{783791DE-C410-4C3F-BC5E-374730C9E443}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="607">
   <si>
     <t>Población según limitación a hacer esfuerzos moderados en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>NO, NO LIMITA NADA</t>
@@ -77,1774 +77,1777 @@
     <t>87,74%</t>
   </si>
   <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
   </si>
   <si>
     <t>71,65%</t>
   </si>
   <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
   </si>
   <si>
     <t>79,78%</t>
   </si>
   <si>
-    <t>74,25%</t>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>SI, LIMITA UN POCO</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>SI, LIMITA MUCHO</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
   </si>
   <si>
     <t>84,52%</t>
   </si>
   <si>
-    <t>SI, LIMITA UN POCO</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según limitación a hacer esfuerzos moderados en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>Población según limitación a hacer esfuerzos moderados en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>Población según limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
   </si>
   <si>
     <t>12,05%</t>
   </si>
   <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>SI, LIMITA MUCHO</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según limitación a hacer esfuerzos moderados en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>Población según limitación a hacer esfuerzos moderados en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>Población según limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
     <t>15,34%</t>
   </si>
   <si>
     <t>5,23%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
   </si>
   <si>
     <t>8,53%</t>
@@ -2268,7 +2271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41CF3EE-33F0-44B3-94B9-48F52609ACE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B930E09D-E63E-43E5-8922-AC6CD721F059}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3130,10 +3133,10 @@
         <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>68</v>
@@ -3142,13 +3145,13 @@
         <v>68291</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,7 +3207,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3216,13 +3219,13 @@
         <v>841175</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>801</v>
@@ -3231,13 +3234,13 @@
         <v>830762</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>1682</v>
@@ -3246,13 +3249,13 @@
         <v>1671937</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,13 +3270,13 @@
         <v>74026</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>136</v>
-      </c>
       <c r="G21" s="7" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="H21" s="7">
         <v>136</v>
@@ -3282,13 +3285,13 @@
         <v>144745</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>219</v>
@@ -3297,13 +3300,13 @@
         <v>218771</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3318,13 +3321,13 @@
         <v>27022</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>60</v>
@@ -3333,13 +3336,13 @@
         <v>63104</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>90</v>
@@ -3348,13 +3351,13 @@
         <v>90126</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,16 +3422,16 @@
         <v>2838</v>
       </c>
       <c r="D24" s="7">
-        <v>2910780</v>
+        <v>2910779</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H24" s="7">
         <v>2599</v>
@@ -3437,13 +3440,13 @@
         <v>2655183</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M24" s="7">
         <v>5437</v>
@@ -3452,10 +3455,10 @@
         <v>5565962</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>159</v>
@@ -3572,7 +3575,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -3637,7 +3640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EC2DE0-859B-420D-B38F-CCF6148958E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C9A44D-6881-4165-B48C-986F3C8C13BE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3869,7 +3872,7 @@
         <v>199</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="H6" s="7">
         <v>12</v>
@@ -3878,13 +3881,13 @@
         <v>13429</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M6" s="7">
         <v>18</v>
@@ -3893,13 +3896,13 @@
         <v>18702</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,13 +3970,13 @@
         <v>498207</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="H8" s="7">
         <v>408</v>
@@ -3982,13 +3985,13 @@
         <v>433337</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M8" s="7">
         <v>881</v>
@@ -3997,13 +4000,13 @@
         <v>931544</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,13 +4021,13 @@
         <v>56511</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>33</v>
+        <v>217</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H9" s="7">
         <v>94</v>
@@ -4033,13 +4036,13 @@
         <v>99727</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M9" s="7">
         <v>143</v>
@@ -4048,13 +4051,13 @@
         <v>156238</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,13 +4072,13 @@
         <v>32986</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>94</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -4084,13 +4087,13 @@
         <v>52081</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="M10" s="7">
         <v>79</v>
@@ -4099,13 +4102,13 @@
         <v>85067</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,13 +4176,13 @@
         <v>855789</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H12" s="7">
         <v>710</v>
@@ -4188,13 +4191,13 @@
         <v>779176</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M12" s="7">
         <v>1501</v>
@@ -4203,13 +4206,13 @@
         <v>1634965</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4224,13 +4227,13 @@
         <v>106277</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H13" s="7">
         <v>140</v>
@@ -4239,13 +4242,13 @@
         <v>154688</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M13" s="7">
         <v>235</v>
@@ -4254,13 +4257,13 @@
         <v>260965</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4275,13 +4278,13 @@
         <v>55881</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H14" s="7">
         <v>90</v>
@@ -4290,13 +4293,13 @@
         <v>98321</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M14" s="7">
         <v>140</v>
@@ -4305,13 +4308,13 @@
         <v>154201</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4379,13 +4382,13 @@
         <v>666262</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H16" s="7">
         <v>539</v>
@@ -4394,13 +4397,13 @@
         <v>593906</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>261</v>
+        <v>188</v>
       </c>
       <c r="M16" s="7">
         <v>1148</v>
@@ -4409,13 +4412,13 @@
         <v>1260168</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4430,13 +4433,13 @@
         <v>58695</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H17" s="7">
         <v>101</v>
@@ -4445,13 +4448,13 @@
         <v>109772</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>269</v>
+        <v>82</v>
       </c>
       <c r="M17" s="7">
         <v>155</v>
@@ -4460,13 +4463,13 @@
         <v>168467</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4481,13 +4484,13 @@
         <v>32667</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H18" s="7">
         <v>65</v>
@@ -4496,13 +4499,13 @@
         <v>73496</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M18" s="7">
         <v>91</v>
@@ -4511,13 +4514,13 @@
         <v>106162</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4573,7 +4576,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4585,13 +4588,13 @@
         <v>807999</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H20" s="7">
         <v>747</v>
@@ -4600,13 +4603,13 @@
         <v>778482</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M20" s="7">
         <v>1530</v>
@@ -4615,13 +4618,13 @@
         <v>1586481</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,13 +4639,13 @@
         <v>99795</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="H21" s="7">
         <v>177</v>
@@ -4717,13 +4720,13 @@
         <v>124093</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>124</v>
+        <v>306</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4791,13 +4794,13 @@
         <v>2925391</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H24" s="7">
         <v>2468</v>
@@ -4806,13 +4809,13 @@
         <v>2656907</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M24" s="7">
         <v>5224</v>
@@ -4821,13 +4824,13 @@
         <v>5582298</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4842,13 +4845,13 @@
         <v>334635</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H25" s="7">
         <v>535</v>
@@ -4857,13 +4860,13 @@
         <v>579929</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M25" s="7">
         <v>839</v>
@@ -4872,13 +4875,13 @@
         <v>914564</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>325</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4893,13 +4896,13 @@
         <v>166753</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H26" s="7">
         <v>295</v>
@@ -4911,10 +4914,10 @@
         <v>107</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M26" s="7">
         <v>444</v>
@@ -4923,10 +4926,10 @@
         <v>488226</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>332</v>
@@ -5006,7 +5009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB0DE76-BDC8-44A6-97E2-1484FE9C7B2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A92E5F-988C-4725-8163-6BC4F4188301}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5145,7 +5148,7 @@
         <v>83901</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>337</v>
@@ -5214,10 +5217,10 @@
         <v>348</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,13 +5235,13 @@
         <v>6291</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>352</v>
-      </c>
       <c r="G6" s="7" t="s">
-        <v>353</v>
+        <v>86</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -5247,13 +5250,13 @@
         <v>12400</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M6" s="7">
         <v>18</v>
@@ -5262,13 +5265,13 @@
         <v>18692</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,13 +5339,13 @@
         <v>479205</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H8" s="7">
         <v>411</v>
@@ -5351,13 +5354,13 @@
         <v>408630</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M8" s="7">
         <v>871</v>
@@ -5366,13 +5369,13 @@
         <v>887835</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,13 +5390,13 @@
         <v>52152</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>370</v>
+        <v>166</v>
       </c>
       <c r="H9" s="7">
         <v>90</v>
@@ -5402,13 +5405,13 @@
         <v>96041</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>138</v>
+        <v>369</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M9" s="7">
         <v>140</v>
@@ -5417,13 +5420,13 @@
         <v>148193</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,13 +5441,13 @@
         <v>26897</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H10" s="7">
         <v>50</v>
@@ -5453,13 +5456,13 @@
         <v>54808</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="M10" s="7">
         <v>79</v>
@@ -5468,13 +5471,13 @@
         <v>81705</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5626,10 +5629,10 @@
         <v>398</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5644,13 +5647,13 @@
         <v>41893</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H14" s="7">
         <v>75</v>
@@ -5662,10 +5665,10 @@
         <v>403</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>279</v>
+        <v>404</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M14" s="7">
         <v>117</v>
@@ -5674,13 +5677,13 @@
         <v>131933</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>254</v>
+        <v>406</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5748,13 +5751,13 @@
         <v>661929</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H16" s="7">
         <v>596</v>
@@ -5763,13 +5766,13 @@
         <v>621668</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M16" s="7">
         <v>1199</v>
@@ -5778,13 +5781,13 @@
         <v>1283597</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>414</v>
+        <v>317</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>257</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5799,13 +5802,13 @@
         <v>68469</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>415</v>
+        <v>162</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H17" s="7">
         <v>87</v>
@@ -5814,7 +5817,7 @@
         <v>101277</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>418</v>
+        <v>168</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>419</v>
@@ -5868,10 +5871,10 @@
         <v>425</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>80</v>
+        <v>426</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M18" s="7">
         <v>82</v>
@@ -5880,13 +5883,13 @@
         <v>91219</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>376</v>
+        <v>429</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>428</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5942,7 +5945,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5954,13 +5957,13 @@
         <v>820210</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H20" s="7">
         <v>780</v>
@@ -5969,13 +5972,13 @@
         <v>829996</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>434</v>
+        <v>77</v>
       </c>
       <c r="M20" s="7">
         <v>1592</v>
@@ -6008,10 +6011,10 @@
         <v>438</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>136</v>
+        <v>439</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>266</v>
+        <v>440</v>
       </c>
       <c r="H21" s="7">
         <v>115</v>
@@ -6020,13 +6023,13 @@
         <v>133712</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M21" s="7">
         <v>193</v>
@@ -6035,13 +6038,13 @@
         <v>209028</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>443</v>
+        <v>346</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6056,13 +6059,13 @@
         <v>42041</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>445</v>
+        <v>62</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>377</v>
+        <v>446</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H22" s="7">
         <v>64</v>
@@ -6071,13 +6074,13 @@
         <v>80071</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="M22" s="7">
         <v>106</v>
@@ -6086,13 +6089,13 @@
         <v>122111</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6160,13 +6163,13 @@
         <v>2923923</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="H24" s="7">
         <v>2641</v>
@@ -6175,13 +6178,13 @@
         <v>2742531</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>456</v>
+        <v>74</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M24" s="7">
         <v>5404</v>
@@ -6193,10 +6196,10 @@
         <v>104</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6211,13 +6214,13 @@
         <v>324151</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H25" s="7">
         <v>444</v>
@@ -6226,13 +6229,13 @@
         <v>502626</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>464</v>
+        <v>59</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>420</v>
+        <v>465</v>
       </c>
       <c r="M25" s="7">
         <v>763</v>
@@ -6241,13 +6244,13 @@
         <v>826777</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,13 +6265,13 @@
         <v>146276</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="H26" s="7">
         <v>253</v>
@@ -6277,13 +6280,13 @@
         <v>299385</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="M26" s="7">
         <v>402</v>
@@ -6292,13 +6295,13 @@
         <v>445660</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>136</v>
+        <v>439</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>93</v>
+        <v>473</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>471</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,7 +6378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59792301-DE86-4715-B8E0-C67C02CE4B34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD08556-3EA9-4DA7-B6FC-DC5A03CB5E92}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6392,7 +6395,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6499,13 +6502,13 @@
         <v>74860</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>207</v>
+        <v>477</v>
       </c>
       <c r="H4" s="7">
         <v>161</v>
@@ -6514,13 +6517,13 @@
         <v>94960</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="M4" s="7">
         <v>245</v>
@@ -6529,13 +6532,13 @@
         <v>169820</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6550,13 +6553,13 @@
         <v>16622</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="H5" s="7">
         <v>49</v>
@@ -6565,13 +6568,13 @@
         <v>20655</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="M5" s="7">
         <v>70</v>
@@ -6580,13 +6583,13 @@
         <v>37277</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>215</v>
+        <v>490</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6601,13 +6604,13 @@
         <v>10500</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="H6" s="7">
         <v>33</v>
@@ -6616,13 +6619,13 @@
         <v>15118</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>491</v>
+        <v>114</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>329</v>
+        <v>495</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="M6" s="7">
         <v>46</v>
@@ -6631,13 +6634,13 @@
         <v>25618</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>164</v>
+        <v>499</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6705,13 +6708,13 @@
         <v>467517</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="H8" s="7">
         <v>733</v>
@@ -6720,13 +6723,13 @@
         <v>490651</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>500</v>
+        <v>359</v>
       </c>
       <c r="M8" s="7">
         <v>1238</v>
@@ -6735,13 +6738,13 @@
         <v>958167</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6756,13 +6759,13 @@
         <v>49428</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>505</v>
+        <v>108</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="H9" s="7">
         <v>156</v>
@@ -6771,13 +6774,13 @@
         <v>77105</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="M9" s="7">
         <v>221</v>
@@ -6786,13 +6789,13 @@
         <v>126532</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>353</v>
+        <v>513</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6807,13 +6810,13 @@
         <v>32879</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>448</v>
+        <v>515</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="H10" s="7">
         <v>109</v>
@@ -6822,13 +6825,13 @@
         <v>52211</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>513</v>
+        <v>190</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>330</v>
+        <v>518</v>
       </c>
       <c r="M10" s="7">
         <v>151</v>
@@ -6837,13 +6840,13 @@
         <v>85090</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>461</v>
+        <v>521</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6911,13 +6914,13 @@
         <v>873234</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="H12" s="7">
         <v>1123</v>
@@ -6926,13 +6929,13 @@
         <v>828639</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>339</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="M12" s="7">
         <v>1957</v>
@@ -6941,13 +6944,13 @@
         <v>1701873</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6962,13 +6965,13 @@
         <v>130025</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="H13" s="7">
         <v>258</v>
@@ -6977,13 +6980,13 @@
         <v>153137</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="M13" s="7">
         <v>340</v>
@@ -6992,13 +6995,13 @@
         <v>283162</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7013,13 +7016,13 @@
         <v>35989</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>147</v>
+        <v>540</v>
       </c>
       <c r="H14" s="7">
         <v>135</v>
@@ -7028,13 +7031,13 @@
         <v>77698</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>461</v>
+        <v>521</v>
       </c>
       <c r="M14" s="7">
         <v>183</v>
@@ -7046,10 +7049,10 @@
         <v>172</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>537</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7117,13 +7120,13 @@
         <v>597101</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>73</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="H16" s="7">
         <v>784</v>
@@ -7132,13 +7135,13 @@
         <v>711867</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>541</v>
+        <v>290</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="M16" s="7">
         <v>1322</v>
@@ -7147,13 +7150,13 @@
         <v>1308967</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7168,13 +7171,13 @@
         <v>102099</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="H17" s="7">
         <v>181</v>
@@ -7183,13 +7186,13 @@
         <v>110210</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>548</v>
+        <v>379</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="M17" s="7">
         <v>288</v>
@@ -7198,13 +7201,13 @@
         <v>212309</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>552</v>
+        <v>419</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7219,13 +7222,13 @@
         <v>29572</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="H18" s="7">
         <v>82</v>
@@ -7234,13 +7237,13 @@
         <v>52294</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>448</v>
+        <v>515</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="M18" s="7">
         <v>113</v>
@@ -7249,13 +7252,13 @@
         <v>81866</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7311,7 +7314,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7323,13 +7326,13 @@
         <v>821057</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>563</v>
+        <v>132</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="H20" s="7">
         <v>1128</v>
@@ -7338,13 +7341,13 @@
         <v>872598</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>312</v>
+        <v>568</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>566</v>
+        <v>236</v>
       </c>
       <c r="M20" s="7">
         <v>1952</v>
@@ -7353,13 +7356,13 @@
         <v>1693656</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7374,13 +7377,13 @@
         <v>101737</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>572</v>
+        <v>273</v>
       </c>
       <c r="H21" s="7">
         <v>278</v>
@@ -7389,13 +7392,13 @@
         <v>177917</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>420</v>
+        <v>574</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="M21" s="7">
         <v>403</v>
@@ -7404,13 +7407,13 @@
         <v>279655</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7425,13 +7428,13 @@
         <v>42609</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>355</v>
+        <v>302</v>
       </c>
       <c r="H22" s="7">
         <v>156</v>
@@ -7440,13 +7443,13 @@
         <v>99916</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>379</v>
+        <v>582</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="M22" s="7">
         <v>213</v>
@@ -7455,13 +7458,13 @@
         <v>142525</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>583</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7529,13 +7532,13 @@
         <v>2833769</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="H24" s="7">
         <v>3929</v>
@@ -7544,13 +7547,13 @@
         <v>2998714</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>458</v>
+        <v>591</v>
       </c>
       <c r="M24" s="7">
         <v>6714</v>
@@ -7559,13 +7562,13 @@
         <v>5832483</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7580,13 +7583,13 @@
         <v>399910</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="H25" s="7">
         <v>922</v>
@@ -7595,13 +7598,13 @@
         <v>539024</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>595</v>
+        <v>220</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>596</v>
+        <v>141</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M25" s="7">
         <v>1322</v>
@@ -7610,13 +7613,13 @@
         <v>938934</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>28</v>
+        <v>600</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7631,13 +7634,13 @@
         <v>151549</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>445</v>
+        <v>62</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>94</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="H26" s="7">
         <v>515</v>
@@ -7646,13 +7649,13 @@
         <v>297238</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>601</v>
+        <v>202</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M26" s="7">
         <v>706</v>
@@ -7661,13 +7664,13 @@
         <v>448787</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P0801-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P0801-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{174DA1A3-A27A-4AE7-BF0A-0B003A522A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7FA5D1F-37A9-4EB6-A6EA-88BB72D688E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{783791DE-C410-4C3F-BC5E-374730C9E443}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8BBA6DF0-B858-41BC-8F52-7BEAE38BACAB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="610">
   <si>
     <t>Población según limitación a hacer esfuerzos moderados en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -71,22 +71,22 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>NO, NO LIMITA NADA</t>
+    <t>No, no limita nada</t>
   </si>
   <si>
     <t>87,74%</t>
   </si>
   <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
   </si>
   <si>
     <t>71,65%</t>
   </si>
   <si>
-    <t>63,58%</t>
+    <t>63,04%</t>
   </si>
   <si>
     <t>78,89%</t>
@@ -95,43 +95,43 @@
     <t>79,78%</t>
   </si>
   <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>SI, LIMITA UN POCO</t>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>Sí, limita un poco</t>
   </si>
   <si>
     <t>9,54%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
   </si>
   <si>
     <t>23,37%</t>
   </si>
   <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
   </si>
   <si>
     <t>16,37%</t>
   </si>
   <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>SI, LIMITA MUCHO</t>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>Sí, limita mucho</t>
   </si>
   <si>
     <t>2,72%</t>
@@ -140,1726 +140,1735 @@
     <t>0,87%</t>
   </si>
   <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según limitación a hacer esfuerzos moderados en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>Población según limitación a hacer esfuerzos moderados en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>Población según limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
   </si>
   <si>
     <t>81,96%</t>
   </si>
   <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
   </si>
   <si>
     <t>6,32%</t>
   </si>
   <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según limitación a hacer esfuerzos moderados en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
   </si>
   <si>
     <t>14,06%</t>
   </si>
   <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>Población según limitación a hacer esfuerzos moderados en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>Población según limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
     <t>15,16%</t>
   </si>
   <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
     <t>13,0%</t>
   </si>
   <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
   </si>
 </sst>
 </file>
@@ -2271,7 +2280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B930E09D-E63E-43E5-8922-AC6CD721F059}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE72D95-8118-49A2-B090-6896182444EB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2864,7 +2873,7 @@
         <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="H13" s="7">
         <v>152</v>
@@ -2873,13 +2882,13 @@
         <v>163932</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>226</v>
@@ -2888,13 +2897,13 @@
         <v>239253</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,13 +2918,13 @@
         <v>32657</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>38</v>
@@ -2924,13 +2933,13 @@
         <v>42136</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>69</v>
@@ -2939,13 +2948,13 @@
         <v>74793</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,7 +3010,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3013,13 +3022,13 @@
         <v>595653</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>528</v>
@@ -3028,13 +3037,13 @@
         <v>516862</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>1087</v>
@@ -3043,13 +3052,13 @@
         <v>1112515</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,13 +3073,13 @@
         <v>61279</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>122</v>
@@ -3079,13 +3088,13 @@
         <v>120266</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>182</v>
@@ -3094,13 +3103,13 @@
         <v>181545</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,13 +3124,13 @@
         <v>21577</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>46</v>
@@ -3130,13 +3139,13 @@
         <v>46713</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>68</v>
@@ -3145,13 +3154,13 @@
         <v>68291</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3207,7 +3216,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3219,13 +3228,13 @@
         <v>841175</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>801</v>
@@ -3234,13 +3243,13 @@
         <v>830762</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>1682</v>
@@ -3249,13 +3258,13 @@
         <v>1671937</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3270,13 +3279,13 @@
         <v>74026</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H21" s="7">
         <v>136</v>
@@ -3422,7 +3431,7 @@
         <v>2838</v>
       </c>
       <c r="D24" s="7">
-        <v>2910779</v>
+        <v>2910780</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>151</v>
@@ -3452,7 +3461,7 @@
         <v>5437</v>
       </c>
       <c r="N24" s="7">
-        <v>5565962</v>
+        <v>5565961</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>157</v>
@@ -3563,7 +3572,7 @@
         <v>176</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>177</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,7 +3584,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -3605,7 +3614,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -3619,7 +3628,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3640,7 +3649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C9A44D-6881-4165-B48C-986F3C8C13BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619EE0A6-769B-498E-8148-9940FE550BB1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3657,7 +3666,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3764,13 +3773,13 @@
         <v>97134</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>64</v>
@@ -3779,13 +3788,13 @@
         <v>72006</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M4" s="7">
         <v>164</v>
@@ -3794,13 +3803,13 @@
         <v>169139</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,13 +3824,13 @@
         <v>13358</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -3830,13 +3839,13 @@
         <v>26470</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -3845,13 +3854,13 @@
         <v>39829</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3866,13 +3875,13 @@
         <v>5273</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H6" s="7">
         <v>12</v>
@@ -3881,13 +3890,13 @@
         <v>13429</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M6" s="7">
         <v>18</v>
@@ -3896,13 +3905,13 @@
         <v>18702</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3970,13 +3979,13 @@
         <v>498207</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H8" s="7">
         <v>408</v>
@@ -3985,13 +3994,13 @@
         <v>433337</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>210</v>
+        <v>18</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M8" s="7">
         <v>881</v>
@@ -4000,13 +4009,13 @@
         <v>931544</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>214</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,13 +4030,13 @@
         <v>56511</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>217</v>
+        <v>161</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H9" s="7">
         <v>94</v>
@@ -4036,13 +4045,13 @@
         <v>99727</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="M9" s="7">
         <v>143</v>
@@ -4051,13 +4060,13 @@
         <v>156238</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4072,13 +4081,13 @@
         <v>32986</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>94</v>
+        <v>221</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -4087,13 +4096,13 @@
         <v>52081</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M10" s="7">
         <v>79</v>
@@ -4102,13 +4111,13 @@
         <v>85067</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4176,13 +4185,13 @@
         <v>855789</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H12" s="7">
         <v>710</v>
@@ -4191,13 +4200,13 @@
         <v>779176</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M12" s="7">
         <v>1501</v>
@@ -4206,13 +4215,13 @@
         <v>1634965</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4227,13 +4236,13 @@
         <v>106277</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H13" s="7">
         <v>140</v>
@@ -4242,13 +4251,13 @@
         <v>154688</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M13" s="7">
         <v>235</v>
@@ -4257,13 +4266,13 @@
         <v>260965</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,13 +4287,13 @@
         <v>55881</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>250</v>
+        <v>144</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>251</v>
+        <v>161</v>
       </c>
       <c r="H14" s="7">
         <v>90</v>
@@ -4293,13 +4302,13 @@
         <v>98321</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M14" s="7">
         <v>140</v>
@@ -4308,13 +4317,13 @@
         <v>154201</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4370,7 +4379,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4382,13 +4391,13 @@
         <v>666262</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H16" s="7">
         <v>539</v>
@@ -4397,13 +4406,13 @@
         <v>593906</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>188</v>
+        <v>259</v>
       </c>
       <c r="M16" s="7">
         <v>1148</v>
@@ -4412,13 +4421,13 @@
         <v>1260168</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,13 +4442,13 @@
         <v>58695</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H17" s="7">
         <v>101</v>
@@ -4448,13 +4457,13 @@
         <v>109772</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>82</v>
+        <v>268</v>
       </c>
       <c r="M17" s="7">
         <v>155</v>
@@ -4463,13 +4472,13 @@
         <v>168467</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,13 +4493,13 @@
         <v>32667</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H18" s="7">
         <v>65</v>
@@ -4499,13 +4508,13 @@
         <v>73496</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M18" s="7">
         <v>91</v>
@@ -4514,13 +4523,13 @@
         <v>106162</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,7 +4585,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4588,13 +4597,13 @@
         <v>807999</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>283</v>
+        <v>78</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H20" s="7">
         <v>747</v>
@@ -4603,13 +4612,13 @@
         <v>778482</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M20" s="7">
         <v>1530</v>
@@ -4618,13 +4627,13 @@
         <v>1586481</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,13 +4648,13 @@
         <v>99795</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>246</v>
+        <v>291</v>
       </c>
       <c r="H21" s="7">
         <v>177</v>
@@ -4654,13 +4663,13 @@
         <v>189271</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M21" s="7">
         <v>267</v>
@@ -4669,13 +4678,13 @@
         <v>289066</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4690,13 +4699,13 @@
         <v>39946</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H22" s="7">
         <v>79</v>
@@ -4705,13 +4714,13 @@
         <v>84147</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M22" s="7">
         <v>116</v>
@@ -4720,13 +4729,13 @@
         <v>124093</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>306</v>
+        <v>134</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>308</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,13 +4803,13 @@
         <v>2925391</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H24" s="7">
         <v>2468</v>
@@ -4809,13 +4818,13 @@
         <v>2656907</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M24" s="7">
         <v>5224</v>
@@ -4824,13 +4833,13 @@
         <v>5582298</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4845,13 +4854,13 @@
         <v>334635</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H25" s="7">
         <v>535</v>
@@ -4860,13 +4869,13 @@
         <v>579929</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M25" s="7">
         <v>839</v>
@@ -4875,13 +4884,13 @@
         <v>914564</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>87</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4896,13 +4905,13 @@
         <v>166753</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>96</v>
+        <v>323</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H26" s="7">
         <v>295</v>
@@ -4911,13 +4920,13 @@
         <v>321473</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="M26" s="7">
         <v>444</v>
@@ -4926,13 +4935,13 @@
         <v>488226</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,7 +4997,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -5009,7 +5018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A92E5F-988C-4725-8163-6BC4F4188301}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC79C9C-AA1F-46B3-9791-1D366475F9F0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5026,7 +5035,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5133,13 +5142,13 @@
         <v>91003</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H4" s="7">
         <v>87</v>
@@ -5148,13 +5157,13 @@
         <v>83901</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M4" s="7">
         <v>174</v>
@@ -5163,13 +5172,13 @@
         <v>174904</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>341</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5184,13 +5193,13 @@
         <v>19251</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -5199,13 +5208,13 @@
         <v>17059</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>346</v>
+        <v>105</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -5214,13 +5223,13 @@
         <v>36310</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5244,13 @@
         <v>6291</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>86</v>
+        <v>347</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -5250,13 +5259,13 @@
         <v>12400</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="M6" s="7">
         <v>18</v>
@@ -5265,13 +5274,13 @@
         <v>18692</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5339,13 +5348,13 @@
         <v>479205</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H8" s="7">
         <v>411</v>
@@ -5354,13 +5363,13 @@
         <v>408630</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="M8" s="7">
         <v>871</v>
@@ -5369,13 +5378,13 @@
         <v>887835</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,13 +5399,13 @@
         <v>52152</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>367</v>
+        <v>106</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="H9" s="7">
         <v>90</v>
@@ -5405,13 +5414,13 @@
         <v>96041</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>368</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>369</v>
+        <v>266</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="M9" s="7">
         <v>140</v>
@@ -5420,13 +5429,13 @@
         <v>148193</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,13 +5450,13 @@
         <v>26897</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="H10" s="7">
         <v>50</v>
@@ -5456,13 +5465,13 @@
         <v>54808</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="M10" s="7">
         <v>79</v>
@@ -5471,13 +5480,13 @@
         <v>81705</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5545,13 +5554,13 @@
         <v>871575</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="H12" s="7">
         <v>767</v>
@@ -5560,13 +5569,13 @@
         <v>798336</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M12" s="7">
         <v>1568</v>
@@ -5575,13 +5584,13 @@
         <v>1669912</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5596,13 +5605,13 @@
         <v>108963</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="H13" s="7">
         <v>135</v>
@@ -5611,13 +5620,13 @@
         <v>154537</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="M13" s="7">
         <v>243</v>
@@ -5626,13 +5635,13 @@
         <v>263499</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5647,13 +5656,13 @@
         <v>41893</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>401</v>
+        <v>93</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="H14" s="7">
         <v>75</v>
@@ -5662,13 +5671,13 @@
         <v>90040</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>404</v>
+        <v>189</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="M14" s="7">
         <v>117</v>
@@ -5677,13 +5686,13 @@
         <v>131933</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,7 +5748,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5751,13 +5760,13 @@
         <v>661929</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>410</v>
+        <v>159</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>411</v>
+        <v>181</v>
       </c>
       <c r="H16" s="7">
         <v>596</v>
@@ -5766,13 +5775,13 @@
         <v>621668</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="M16" s="7">
         <v>1199</v>
@@ -5781,13 +5790,13 @@
         <v>1283597</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>317</v>
+        <v>406</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,13 +5811,13 @@
         <v>68469</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>162</v>
+        <v>408</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="H17" s="7">
         <v>87</v>
@@ -5817,13 +5826,13 @@
         <v>101277</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>168</v>
+        <v>411</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="M17" s="7">
         <v>151</v>
@@ -5832,13 +5841,13 @@
         <v>169747</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5856,10 +5865,10 @@
         <v>37</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>172</v>
+        <v>418</v>
       </c>
       <c r="H18" s="7">
         <v>53</v>
@@ -5868,13 +5877,13 @@
         <v>62066</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="M18" s="7">
         <v>82</v>
@@ -5883,13 +5892,13 @@
         <v>91219</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>278</v>
+        <v>424</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5945,7 +5954,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5957,13 +5966,13 @@
         <v>820210</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="H20" s="7">
         <v>780</v>
@@ -5972,13 +5981,13 @@
         <v>829996</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>77</v>
+        <v>430</v>
       </c>
       <c r="M20" s="7">
         <v>1592</v>
@@ -5987,13 +5996,13 @@
         <v>1650207</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6008,13 +6017,13 @@
         <v>75316</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="H21" s="7">
         <v>115</v>
@@ -6023,13 +6032,13 @@
         <v>133712</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>443</v>
+        <v>113</v>
       </c>
       <c r="M21" s="7">
         <v>193</v>
@@ -6038,13 +6047,13 @@
         <v>209028</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>346</v>
+        <v>440</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6059,13 +6068,13 @@
         <v>42041</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>62</v>
+        <v>442</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H22" s="7">
         <v>64</v>
@@ -6074,13 +6083,13 @@
         <v>80071</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="M22" s="7">
         <v>106</v>
@@ -6089,13 +6098,13 @@
         <v>122111</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6163,13 +6172,13 @@
         <v>2923923</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H24" s="7">
         <v>2641</v>
@@ -6178,13 +6187,13 @@
         <v>2742531</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>74</v>
+        <v>455</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="M24" s="7">
         <v>5404</v>
@@ -6193,13 +6202,13 @@
         <v>5666454</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,13 +6223,13 @@
         <v>324151</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>463</v>
+        <v>385</v>
       </c>
       <c r="H25" s="7">
         <v>444</v>
@@ -6229,13 +6238,13 @@
         <v>502626</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>59</v>
+        <v>462</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="M25" s="7">
         <v>763</v>
@@ -6244,13 +6253,13 @@
         <v>826777</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6265,13 +6274,13 @@
         <v>146276</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>34</v>
+        <v>468</v>
       </c>
       <c r="H26" s="7">
         <v>253</v>
@@ -6280,13 +6289,13 @@
         <v>299385</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>471</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>472</v>
+        <v>248</v>
       </c>
       <c r="M26" s="7">
         <v>402</v>
@@ -6295,13 +6304,13 @@
         <v>445660</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>439</v>
+        <v>471</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6357,7 +6366,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -6378,7 +6387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD08556-3EA9-4DA7-B6FC-DC5A03CB5E92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76E9565-D91B-4C2C-ACF5-0E90087DB3DD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6553,7 +6562,7 @@
         <v>16622</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>484</v>
@@ -6619,7 +6628,7 @@
         <v>15118</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>114</v>
+        <v>487</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>495</v>
@@ -6640,7 +6649,7 @@
         <v>498</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>499</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6708,13 +6717,13 @@
         <v>467517</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>502</v>
       </c>
       <c r="H8" s="7">
         <v>733</v>
@@ -6723,13 +6732,13 @@
         <v>490651</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="M8" s="7">
         <v>1238</v>
@@ -6762,10 +6771,10 @@
         <v>508</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>108</v>
+        <v>509</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H9" s="7">
         <v>156</v>
@@ -6774,13 +6783,13 @@
         <v>77105</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M9" s="7">
         <v>221</v>
@@ -6789,13 +6798,13 @@
         <v>126532</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>513</v>
+        <v>397</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>366</v>
+        <v>514</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>514</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6813,10 +6822,10 @@
         <v>515</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>91</v>
+        <v>516</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H10" s="7">
         <v>109</v>
@@ -6825,13 +6834,13 @@
         <v>52211</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>190</v>
+        <v>519</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="M10" s="7">
         <v>151</v>
@@ -6840,13 +6849,13 @@
         <v>85090</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>520</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6914,13 +6923,13 @@
         <v>873234</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H12" s="7">
         <v>1123</v>
@@ -6929,13 +6938,13 @@
         <v>828639</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>339</v>
+        <v>527</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="M12" s="7">
         <v>1957</v>
@@ -6944,13 +6953,13 @@
         <v>1701873</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>157</v>
+        <v>531</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6965,13 +6974,13 @@
         <v>130025</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="H13" s="7">
         <v>258</v>
@@ -6980,13 +6989,13 @@
         <v>153137</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="M13" s="7">
         <v>340</v>
@@ -6995,13 +7004,13 @@
         <v>283162</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>536</v>
+        <v>397</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7016,13 +7025,13 @@
         <v>35989</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="H14" s="7">
         <v>135</v>
@@ -7031,13 +7040,13 @@
         <v>77698</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>542</v>
+        <v>174</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
       <c r="M14" s="7">
         <v>183</v>
@@ -7049,10 +7058,10 @@
         <v>172</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>543</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>256</v>
+        <v>545</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7108,7 +7117,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7120,13 +7129,13 @@
         <v>597101</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>73</v>
+        <v>547</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="H16" s="7">
         <v>784</v>
@@ -7135,13 +7144,13 @@
         <v>711867</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>546</v>
+        <v>432</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>290</v>
+        <v>549</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="M16" s="7">
         <v>1322</v>
@@ -7150,13 +7159,13 @@
         <v>1308967</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>232</v>
+        <v>551</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>548</v>
+        <v>210</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7171,13 +7180,13 @@
         <v>102099</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>551</v>
+        <v>225</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="H17" s="7">
         <v>181</v>
@@ -7186,13 +7195,13 @@
         <v>110210</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>379</v>
+        <v>271</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="M17" s="7">
         <v>288</v>
@@ -7201,13 +7210,13 @@
         <v>212309</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>419</v>
+        <v>558</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7222,13 +7231,13 @@
         <v>29572</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>557</v>
+        <v>144</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H18" s="7">
         <v>82</v>
@@ -7240,10 +7249,10 @@
         <v>515</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="M18" s="7">
         <v>113</v>
@@ -7252,13 +7261,13 @@
         <v>81866</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>562</v>
+        <v>22</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7314,7 +7323,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7326,13 +7335,13 @@
         <v>821057</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>567</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H20" s="7">
         <v>1128</v>
@@ -7341,13 +7350,13 @@
         <v>872598</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>568</v>
+        <v>475</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>236</v>
+        <v>570</v>
       </c>
       <c r="M20" s="7">
         <v>1952</v>
@@ -7356,13 +7365,13 @@
         <v>1693656</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7377,13 +7386,13 @@
         <v>101737</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>573</v>
+        <v>522</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>273</v>
+        <v>575</v>
       </c>
       <c r="H21" s="7">
         <v>278</v>
@@ -7392,13 +7401,13 @@
         <v>177917</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="M21" s="7">
         <v>403</v>
@@ -7407,13 +7416,13 @@
         <v>279655</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7428,13 +7437,13 @@
         <v>42609</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>302</v>
+        <v>584</v>
       </c>
       <c r="H22" s="7">
         <v>156</v>
@@ -7443,13 +7452,13 @@
         <v>99916</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>553</v>
+        <v>585</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>582</v>
+        <v>543</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="M22" s="7">
         <v>213</v>
@@ -7458,13 +7467,13 @@
         <v>142525</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>332</v>
+        <v>589</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7532,13 +7541,13 @@
         <v>2833769</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="H24" s="7">
         <v>3929</v>
@@ -7547,13 +7556,13 @@
         <v>2998714</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="M24" s="7">
         <v>6714</v>
@@ -7562,13 +7571,13 @@
         <v>5832483</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>594</v>
+        <v>546</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7583,13 +7592,13 @@
         <v>399910</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="H25" s="7">
         <v>922</v>
@@ -7598,13 +7607,13 @@
         <v>539024</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>220</v>
+        <v>601</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>141</v>
+        <v>271</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="M25" s="7">
         <v>1322</v>
@@ -7613,13 +7622,13 @@
         <v>938934</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>600</v>
+        <v>137</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7634,13 +7643,13 @@
         <v>151549</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>62</v>
+        <v>442</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>94</v>
+        <v>605</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="H26" s="7">
         <v>515</v>
@@ -7649,13 +7658,13 @@
         <v>297238</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>202</v>
+        <v>607</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="M26" s="7">
         <v>706</v>
@@ -7664,13 +7673,13 @@
         <v>448787</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>604</v>
+        <v>174</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>605</v>
+        <v>325</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7726,7 +7735,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P0801-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P0801-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7FA5D1F-37A9-4EB6-A6EA-88BB72D688E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EE8ADCF-4FFE-474F-A5E7-AF99593CE320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8BBA6DF0-B858-41BC-8F52-7BEAE38BACAB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{00B5CEB9-571D-4363-9AF8-BB7C1B4C1111}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="513">
   <si>
     <t>Población según limitación a hacer esfuerzos moderados en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,1807 +68,1516 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>No, no limita nada</t>
   </si>
   <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
   </si>
   <si>
     <t>Sí, limita un poco</t>
   </si>
   <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
   </si>
   <si>
     <t>Sí, limita mucho</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según limitación a hacer esfuerzos moderados en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
   </si>
   <si>
     <t>3,84%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
   </si>
   <si>
     <t>7,36%</t>
   </si>
   <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según limitación a hacer esfuerzos moderados en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>Población según limitación a hacer esfuerzos moderados en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
   </si>
   <si>
     <t>89,41%</t>
   </si>
   <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>Población según limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
   </si>
   <si>
     <t>11,47%</t>
   </si>
   <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>Población según limitación a hacer esfuerzos moderados en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>Población según limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
   </si>
 </sst>
 </file>
@@ -2280,8 +1989,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE72D95-8118-49A2-B090-6896182444EB}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E13194B-4CE6-4261-9B28-37363A90B58F}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2398,10 +2107,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>92</v>
+        <v>607</v>
       </c>
       <c r="D4" s="7">
-        <v>101215</v>
+        <v>620129</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2413,10 +2122,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>92</v>
+        <v>552</v>
       </c>
       <c r="I4" s="7">
-        <v>80784</v>
+        <v>545233</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2428,10 +2137,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>184</v>
+        <v>1159</v>
       </c>
       <c r="N4" s="7">
-        <v>181999</v>
+        <v>1165363</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2449,10 +2158,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D5" s="7">
-        <v>11006</v>
+        <v>53576</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2464,10 +2173,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="I5" s="7">
-        <v>26345</v>
+        <v>112028</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2479,10 +2188,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="N5" s="7">
-        <v>37351</v>
+        <v>165604</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2500,10 +2209,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D6" s="7">
-        <v>3138</v>
+        <v>20307</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2515,10 +2224,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I6" s="7">
-        <v>5625</v>
+        <v>31089</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2530,10 +2239,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="N6" s="7">
-        <v>8763</v>
+        <v>51397</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2551,10 +2260,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D7" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -2566,10 +2275,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I7" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2581,10 +2290,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N7" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -2604,10 +2313,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>515</v>
+        <v>791</v>
       </c>
       <c r="D8" s="7">
-        <v>518914</v>
+        <v>853822</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -2619,10 +2328,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>460</v>
+        <v>718</v>
       </c>
       <c r="I8" s="7">
-        <v>464449</v>
+        <v>762324</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -2634,10 +2343,10 @@
         <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>975</v>
+        <v>1509</v>
       </c>
       <c r="N8" s="7">
-        <v>983364</v>
+        <v>1616146</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -2655,10 +2364,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D9" s="7">
-        <v>42570</v>
+        <v>75321</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -2670,10 +2379,10 @@
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="I9" s="7">
-        <v>85683</v>
+        <v>163932</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -2685,10 +2394,10 @@
         <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>129</v>
+        <v>226</v>
       </c>
       <c r="N9" s="7">
-        <v>128253</v>
+        <v>239253</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -2706,10 +2415,10 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D10" s="7">
-        <v>17169</v>
+        <v>32657</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -2721,10 +2430,10 @@
         <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="I10" s="7">
-        <v>25464</v>
+        <v>42136</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -2736,10 +2445,10 @@
         <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="N10" s="7">
-        <v>42633</v>
+        <v>74793</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -2757,10 +2466,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D11" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -2772,10 +2481,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I11" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -2787,10 +2496,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N11" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -2810,10 +2519,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>791</v>
+        <v>559</v>
       </c>
       <c r="D12" s="7">
-        <v>853822</v>
+        <v>595653</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -2825,10 +2534,10 @@
         <v>72</v>
       </c>
       <c r="H12" s="7">
-        <v>718</v>
+        <v>528</v>
       </c>
       <c r="I12" s="7">
-        <v>762324</v>
+        <v>516862</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -2840,10 +2549,10 @@
         <v>75</v>
       </c>
       <c r="M12" s="7">
-        <v>1509</v>
+        <v>1087</v>
       </c>
       <c r="N12" s="7">
-        <v>1616146</v>
+        <v>1112515</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>76</v>
@@ -2861,10 +2570,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D13" s="7">
-        <v>75321</v>
+        <v>61279</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>79</v>
@@ -2873,37 +2582,37 @@
         <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="I13" s="7">
-        <v>163932</v>
+        <v>120266</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="N13" s="7">
-        <v>239253</v>
+        <v>181545</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,49 +2621,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D14" s="7">
-        <v>32657</v>
+        <v>21577</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I14" s="7">
-        <v>42136</v>
+        <v>46713</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N14" s="7">
-        <v>74793</v>
+        <v>68291</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,10 +2672,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D15" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -2978,10 +2687,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I15" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -2993,10 +2702,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N15" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -3010,55 +2719,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>559</v>
+        <v>881</v>
       </c>
       <c r="D16" s="7">
-        <v>595653</v>
+        <v>841175</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
-        <v>528</v>
+        <v>801</v>
       </c>
       <c r="I16" s="7">
-        <v>516862</v>
+        <v>830762</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
-        <v>1087</v>
+        <v>1682</v>
       </c>
       <c r="N16" s="7">
-        <v>1112515</v>
+        <v>1671937</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,49 +2776,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="D17" s="7">
-        <v>61279</v>
+        <v>74026</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="I17" s="7">
-        <v>120266</v>
+        <v>144745</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="N17" s="7">
-        <v>181545</v>
+        <v>218771</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,49 +2827,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D18" s="7">
-        <v>21577</v>
+        <v>27022</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I18" s="7">
-        <v>46713</v>
+        <v>63104</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="N18" s="7">
-        <v>68291</v>
+        <v>90126</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,10 +2878,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D19" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -3184,10 +2893,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I19" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -3199,10 +2908,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N19" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -3216,55 +2925,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>881</v>
+        <v>2838</v>
       </c>
       <c r="D20" s="7">
-        <v>841175</v>
+        <v>2910779</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
-        <v>801</v>
+        <v>2599</v>
       </c>
       <c r="I20" s="7">
-        <v>830762</v>
+        <v>2655182</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
-        <v>1682</v>
+        <v>5437</v>
       </c>
       <c r="N20" s="7">
-        <v>1671937</v>
+        <v>5565962</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3273,49 +2982,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>83</v>
+        <v>272</v>
       </c>
       <c r="D21" s="7">
-        <v>74026</v>
+        <v>264201</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H21" s="7">
-        <v>136</v>
+        <v>524</v>
       </c>
       <c r="I21" s="7">
-        <v>144745</v>
+        <v>540972</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M21" s="7">
-        <v>219</v>
+        <v>796</v>
       </c>
       <c r="N21" s="7">
-        <v>218771</v>
+        <v>805173</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3324,49 +3033,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="D22" s="7">
-        <v>27022</v>
+        <v>101563</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
-        <v>60</v>
+        <v>174</v>
       </c>
       <c r="I22" s="7">
-        <v>63104</v>
+        <v>183043</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
+        <v>278</v>
+      </c>
+      <c r="N22" s="7">
+        <v>284606</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="N22" s="7">
-        <v>90126</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3375,10 +3084,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -3390,10 +3099,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I23" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -3405,10 +3114,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -3421,222 +3130,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>2838</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2910780</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="A24" t="s">
         <v>151</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H24" s="7">
-        <v>2599</v>
-      </c>
-      <c r="I24" s="7">
-        <v>2655183</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="M24" s="7">
-        <v>5437</v>
-      </c>
-      <c r="N24" s="7">
-        <v>5565961</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>272</v>
-      </c>
-      <c r="D25" s="7">
-        <v>264201</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H25" s="7">
-        <v>524</v>
-      </c>
-      <c r="I25" s="7">
-        <v>540972</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="M25" s="7">
-        <v>796</v>
-      </c>
-      <c r="N25" s="7">
-        <v>805173</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>104</v>
-      </c>
-      <c r="D26" s="7">
-        <v>101563</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H26" s="7">
-        <v>174</v>
-      </c>
-      <c r="I26" s="7">
-        <v>183044</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="M26" s="7">
-        <v>278</v>
-      </c>
-      <c r="N26" s="7">
-        <v>284606</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>177</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3649,8 +3151,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619EE0A6-769B-498E-8148-9940FE550BB1}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2830CA-054D-4C8B-AFE2-AF3635FD157F}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3666,7 +3168,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3767,49 +3269,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>100</v>
+        <v>573</v>
       </c>
       <c r="D4" s="7">
-        <v>97134</v>
+        <v>595341</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="H4" s="7">
-        <v>64</v>
+        <v>472</v>
       </c>
       <c r="I4" s="7">
-        <v>72006</v>
+        <v>505343</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="M4" s="7">
-        <v>164</v>
+        <v>1045</v>
       </c>
       <c r="N4" s="7">
-        <v>169139</v>
+        <v>1100684</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,49 +3320,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="D5" s="7">
-        <v>13358</v>
+        <v>69869</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="H5" s="7">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="I5" s="7">
-        <v>26470</v>
+        <v>126198</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="M5" s="7">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="N5" s="7">
-        <v>39829</v>
+        <v>196067</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,49 +3371,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D6" s="7">
-        <v>5273</v>
+        <v>38259</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="H6" s="7">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I6" s="7">
-        <v>13429</v>
+        <v>65510</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="M6" s="7">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="N6" s="7">
-        <v>18702</v>
+        <v>103769</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,10 +3422,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D7" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -3935,10 +3437,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I7" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -3950,10 +3452,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N7" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -3973,49 +3475,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>473</v>
+        <v>791</v>
       </c>
       <c r="D8" s="7">
-        <v>498207</v>
+        <v>855789</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="H8" s="7">
-        <v>408</v>
+        <v>710</v>
       </c>
       <c r="I8" s="7">
-        <v>433337</v>
+        <v>779176</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="M8" s="7">
-        <v>881</v>
+        <v>1501</v>
       </c>
       <c r="N8" s="7">
-        <v>931544</v>
+        <v>1634965</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4024,49 +3526,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="D9" s="7">
-        <v>56511</v>
+        <v>106277</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="H9" s="7">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="I9" s="7">
-        <v>99727</v>
+        <v>154688</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="M9" s="7">
-        <v>143</v>
+        <v>235</v>
       </c>
       <c r="N9" s="7">
-        <v>156238</v>
+        <v>260965</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4075,49 +3577,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D10" s="7">
-        <v>32986</v>
+        <v>55881</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>221</v>
+        <v>118</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>222</v>
+        <v>135</v>
       </c>
       <c r="H10" s="7">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="I10" s="7">
-        <v>52081</v>
+        <v>98321</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="N10" s="7">
-        <v>85067</v>
+        <v>154201</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4126,10 +3628,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D11" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -4141,10 +3643,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I11" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -4156,10 +3658,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N11" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -4179,49 +3681,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>791</v>
+        <v>609</v>
       </c>
       <c r="D12" s="7">
-        <v>855789</v>
+        <v>666262</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="H12" s="7">
-        <v>710</v>
+        <v>539</v>
       </c>
       <c r="I12" s="7">
-        <v>779176</v>
+        <v>593906</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>232</v>
+        <v>160</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="M12" s="7">
-        <v>1501</v>
+        <v>1148</v>
       </c>
       <c r="N12" s="7">
-        <v>1634965</v>
+        <v>1260168</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4230,49 +3732,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="D13" s="7">
-        <v>106277</v>
+        <v>58695</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="I13" s="7">
-        <v>154688</v>
+        <v>109772</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="N13" s="7">
-        <v>260965</v>
+        <v>168467</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4281,49 +3783,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D14" s="7">
-        <v>55881</v>
+        <v>32667</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>144</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="I14" s="7">
-        <v>98321</v>
+        <v>73496</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="N14" s="7">
-        <v>154201</v>
+        <v>106162</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4332,10 +3834,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D15" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -4347,10 +3849,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I15" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -4362,10 +3864,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="N15" s="7">
-        <v>2050131</v>
+        <v>1534797</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -4379,55 +3881,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>609</v>
+        <v>783</v>
       </c>
       <c r="D16" s="7">
-        <v>666262</v>
+        <v>807999</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>254</v>
+        <v>50</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="H16" s="7">
-        <v>539</v>
+        <v>747</v>
       </c>
       <c r="I16" s="7">
-        <v>593906</v>
+        <v>778482</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="M16" s="7">
-        <v>1148</v>
+        <v>1530</v>
       </c>
       <c r="N16" s="7">
-        <v>1260168</v>
+        <v>1586481</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4436,49 +3938,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="D17" s="7">
-        <v>58695</v>
+        <v>99795</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="H17" s="7">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c r="I17" s="7">
-        <v>109772</v>
+        <v>189271</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="M17" s="7">
         <v>267</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="M17" s="7">
-        <v>155</v>
-      </c>
       <c r="N17" s="7">
-        <v>168467</v>
+        <v>289066</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,49 +3989,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D18" s="7">
-        <v>32667</v>
+        <v>39946</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="H18" s="7">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="I18" s="7">
-        <v>73496</v>
+        <v>84147</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="M18" s="7">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="N18" s="7">
-        <v>106162</v>
+        <v>124093</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>278</v>
+        <v>108</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4538,10 +4040,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D19" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -4553,10 +4055,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I19" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -4568,10 +4070,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N19" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -4585,55 +4087,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>783</v>
+        <v>2756</v>
       </c>
       <c r="D20" s="7">
-        <v>807999</v>
+        <v>2925391</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>78</v>
+        <v>256</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="H20" s="7">
-        <v>747</v>
+        <v>2468</v>
       </c>
       <c r="I20" s="7">
-        <v>778482</v>
+        <v>2656907</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="M20" s="7">
-        <v>1530</v>
+        <v>5224</v>
       </c>
       <c r="N20" s="7">
-        <v>1586481</v>
+        <v>5582298</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4642,49 +4144,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>90</v>
+        <v>304</v>
       </c>
       <c r="D21" s="7">
-        <v>99795</v>
+        <v>334635</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="H21" s="7">
-        <v>177</v>
+        <v>535</v>
       </c>
       <c r="I21" s="7">
-        <v>189271</v>
+        <v>579929</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="M21" s="7">
-        <v>267</v>
+        <v>839</v>
       </c>
       <c r="N21" s="7">
-        <v>289066</v>
+        <v>914564</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4693,49 +4195,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="D22" s="7">
-        <v>39946</v>
+        <v>166753</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="H22" s="7">
+        <v>295</v>
+      </c>
+      <c r="I22" s="7">
+        <v>321473</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="7">
-        <v>84147</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>301</v>
-      </c>
       <c r="K22" s="7" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
-        <v>116</v>
+        <v>444</v>
       </c>
       <c r="N22" s="7">
-        <v>124093</v>
+        <v>488226</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>134</v>
+        <v>279</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>304</v>
+        <v>224</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>51</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,10 +4246,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D23" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -4759,10 +4261,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I23" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -4774,10 +4276,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N23" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -4790,222 +4292,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>2756</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2925391</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="H24" s="7">
-        <v>2468</v>
-      </c>
-      <c r="I24" s="7">
-        <v>2656907</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="M24" s="7">
-        <v>5224</v>
-      </c>
-      <c r="N24" s="7">
-        <v>5582298</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>304</v>
-      </c>
-      <c r="D25" s="7">
-        <v>334635</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H25" s="7">
-        <v>535</v>
-      </c>
-      <c r="I25" s="7">
-        <v>579929</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="M25" s="7">
-        <v>839</v>
-      </c>
-      <c r="N25" s="7">
-        <v>914564</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>149</v>
-      </c>
-      <c r="D26" s="7">
-        <v>166753</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H26" s="7">
-        <v>295</v>
-      </c>
-      <c r="I26" s="7">
-        <v>321473</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M26" s="7">
-        <v>444</v>
-      </c>
-      <c r="N26" s="7">
-        <v>488226</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>177</v>
+      <c r="A24" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5018,8 +4313,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC79C9C-AA1F-46B3-9791-1D366475F9F0}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F8B747-BC51-4ABD-97AB-83FD5B54755D}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5035,7 +4330,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5136,49 +4431,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>87</v>
+        <v>547</v>
       </c>
       <c r="D4" s="7">
-        <v>91003</v>
+        <v>570209</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>333</v>
+        <v>284</v>
       </c>
       <c r="H4" s="7">
-        <v>87</v>
+        <v>498</v>
       </c>
       <c r="I4" s="7">
-        <v>83901</v>
+        <v>492531</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>334</v>
+        <v>286</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="M4" s="7">
-        <v>174</v>
+        <v>1045</v>
       </c>
       <c r="N4" s="7">
-        <v>174904</v>
+        <v>1062739</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>337</v>
+        <v>289</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>230</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,49 +4482,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="D5" s="7">
-        <v>19251</v>
+        <v>71403</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>338</v>
+        <v>291</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>339</v>
+        <v>292</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>340</v>
+        <v>293</v>
       </c>
       <c r="H5" s="7">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="I5" s="7">
-        <v>17059</v>
+        <v>113100</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>105</v>
+        <v>295</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>342</v>
+        <v>296</v>
       </c>
       <c r="M5" s="7">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="N5" s="7">
-        <v>36310</v>
+        <v>184503</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>343</v>
+        <v>297</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>225</v>
+        <v>298</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>344</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,49 +4533,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D6" s="7">
-        <v>6291</v>
+        <v>33189</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>346</v>
+        <v>301</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>347</v>
+        <v>302</v>
       </c>
       <c r="H6" s="7">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="I6" s="7">
-        <v>12400</v>
+        <v>67208</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>348</v>
+        <v>303</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>349</v>
+        <v>304</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>350</v>
+        <v>57</v>
       </c>
       <c r="M6" s="7">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="N6" s="7">
-        <v>18692</v>
+        <v>100397</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>351</v>
+        <v>305</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>352</v>
+        <v>306</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>353</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,10 +4584,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D7" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -5304,10 +4599,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I7" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -5319,10 +4614,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N7" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -5342,49 +4637,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>460</v>
+        <v>801</v>
       </c>
       <c r="D8" s="7">
-        <v>479205</v>
+        <v>871575</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>354</v>
+        <v>308</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>355</v>
+        <v>309</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>356</v>
+        <v>310</v>
       </c>
       <c r="H8" s="7">
-        <v>411</v>
+        <v>767</v>
       </c>
       <c r="I8" s="7">
-        <v>408630</v>
+        <v>798336</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>357</v>
+        <v>311</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>358</v>
+        <v>312</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>359</v>
+        <v>313</v>
       </c>
       <c r="M8" s="7">
-        <v>871</v>
+        <v>1568</v>
       </c>
       <c r="N8" s="7">
-        <v>887835</v>
+        <v>1669912</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>210</v>
+        <v>314</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5393,49 +4688,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="D9" s="7">
-        <v>52152</v>
+        <v>108963</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>106</v>
+        <v>318</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>137</v>
+        <v>319</v>
       </c>
       <c r="H9" s="7">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="I9" s="7">
-        <v>96041</v>
+        <v>154537</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>320</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>266</v>
+        <v>321</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>363</v>
+        <v>322</v>
       </c>
       <c r="M9" s="7">
-        <v>140</v>
+        <v>243</v>
       </c>
       <c r="N9" s="7">
-        <v>148193</v>
+        <v>263499</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>364</v>
+        <v>323</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>365</v>
+        <v>324</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5444,49 +4739,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D10" s="7">
-        <v>26897</v>
+        <v>41893</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>368</v>
+        <v>67</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
       <c r="H10" s="7">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I10" s="7">
-        <v>54808</v>
+        <v>90040</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>370</v>
+        <v>328</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>371</v>
+        <v>329</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>372</v>
+        <v>330</v>
       </c>
       <c r="M10" s="7">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="N10" s="7">
-        <v>81705</v>
+        <v>131933</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>374</v>
+        <v>332</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>375</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5495,10 +4790,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D11" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -5510,10 +4805,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I11" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5525,10 +4820,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N11" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -5548,49 +4843,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>801</v>
+        <v>603</v>
       </c>
       <c r="D12" s="7">
-        <v>871575</v>
+        <v>661929</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>376</v>
+        <v>334</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>377</v>
+        <v>133</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>378</v>
+        <v>335</v>
       </c>
       <c r="H12" s="7">
-        <v>767</v>
+        <v>596</v>
       </c>
       <c r="I12" s="7">
-        <v>798336</v>
+        <v>621668</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>380</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>381</v>
+        <v>337</v>
       </c>
       <c r="M12" s="7">
-        <v>1568</v>
+        <v>1199</v>
       </c>
       <c r="N12" s="7">
-        <v>1669912</v>
+        <v>1283597</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>382</v>
+        <v>338</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>383</v>
+        <v>339</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5599,49 +4894,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D13" s="7">
-        <v>108963</v>
+        <v>68469</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>385</v>
+        <v>341</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>387</v>
+        <v>343</v>
       </c>
       <c r="H13" s="7">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="I13" s="7">
-        <v>154537</v>
+        <v>101277</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>388</v>
+        <v>344</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>389</v>
+        <v>345</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>390</v>
+        <v>346</v>
       </c>
       <c r="M13" s="7">
-        <v>243</v>
+        <v>151</v>
       </c>
       <c r="N13" s="7">
-        <v>263499</v>
+        <v>169747</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>391</v>
+        <v>347</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>392</v>
+        <v>348</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>393</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5650,49 +4945,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7">
-        <v>41893</v>
+        <v>29154</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>394</v>
+        <v>172</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>93</v>
+        <v>350</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>395</v>
+        <v>351</v>
       </c>
       <c r="H14" s="7">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="I14" s="7">
-        <v>90040</v>
+        <v>62066</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>396</v>
+        <v>352</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>189</v>
+        <v>353</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>397</v>
+        <v>354</v>
       </c>
       <c r="M14" s="7">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="N14" s="7">
-        <v>131933</v>
+        <v>91219</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>398</v>
+        <v>355</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>400</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5701,10 +4996,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D15" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5716,10 +5011,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I15" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5731,10 +5026,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N15" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5748,55 +5043,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>603</v>
+        <v>812</v>
       </c>
       <c r="D16" s="7">
-        <v>661929</v>
+        <v>820210</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>401</v>
+        <v>358</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>159</v>
+        <v>359</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>181</v>
+        <v>360</v>
       </c>
       <c r="H16" s="7">
-        <v>596</v>
+        <v>780</v>
       </c>
       <c r="I16" s="7">
-        <v>621668</v>
+        <v>829996</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>402</v>
+        <v>361</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>403</v>
+        <v>362</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>404</v>
+        <v>363</v>
       </c>
       <c r="M16" s="7">
-        <v>1199</v>
+        <v>1592</v>
       </c>
       <c r="N16" s="7">
-        <v>1283597</v>
+        <v>1650207</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>405</v>
+        <v>364</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>406</v>
+        <v>365</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>407</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5805,49 +5100,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D17" s="7">
-        <v>68469</v>
+        <v>75316</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>408</v>
+        <v>367</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>409</v>
+        <v>368</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>410</v>
+        <v>303</v>
       </c>
       <c r="H17" s="7">
+        <v>115</v>
+      </c>
+      <c r="I17" s="7">
+        <v>133712</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I17" s="7">
-        <v>101277</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>413</v>
-      </c>
       <c r="M17" s="7">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="N17" s="7">
-        <v>169747</v>
+        <v>209028</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>414</v>
+        <v>371</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>415</v>
+        <v>372</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>416</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5856,49 +5151,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D18" s="7">
-        <v>29154</v>
+        <v>42041</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>37</v>
+        <v>374</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>418</v>
+        <v>376</v>
       </c>
       <c r="H18" s="7">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="I18" s="7">
-        <v>62066</v>
+        <v>80071</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>419</v>
+        <v>377</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>421</v>
+        <v>379</v>
       </c>
       <c r="M18" s="7">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="N18" s="7">
-        <v>91219</v>
+        <v>122111</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>423</v>
+        <v>381</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>424</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,10 +5202,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D19" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5922,10 +5217,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I19" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5937,10 +5232,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N19" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -5954,55 +5249,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>812</v>
+        <v>2763</v>
       </c>
       <c r="D20" s="7">
-        <v>820210</v>
+        <v>2923923</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>425</v>
+        <v>382</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>426</v>
+        <v>383</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>427</v>
+        <v>284</v>
       </c>
       <c r="H20" s="7">
-        <v>780</v>
+        <v>2641</v>
       </c>
       <c r="I20" s="7">
-        <v>829996</v>
+        <v>2742531</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>428</v>
+        <v>384</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>429</v>
+        <v>385</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>430</v>
+        <v>386</v>
       </c>
       <c r="M20" s="7">
-        <v>1592</v>
+        <v>5404</v>
       </c>
       <c r="N20" s="7">
-        <v>1650207</v>
+        <v>5666454</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>431</v>
+        <v>76</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>432</v>
+        <v>387</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>433</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6011,49 +5306,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>78</v>
+        <v>319</v>
       </c>
       <c r="D21" s="7">
-        <v>75316</v>
+        <v>324151</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>434</v>
+        <v>389</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>435</v>
+        <v>390</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>436</v>
+        <v>317</v>
       </c>
       <c r="H21" s="7">
-        <v>115</v>
+        <v>444</v>
       </c>
       <c r="I21" s="7">
-        <v>133712</v>
+        <v>502626</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>437</v>
+        <v>391</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>438</v>
+        <v>392</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>113</v>
+        <v>393</v>
       </c>
       <c r="M21" s="7">
-        <v>193</v>
+        <v>763</v>
       </c>
       <c r="N21" s="7">
-        <v>209028</v>
+        <v>826777</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>439</v>
+        <v>394</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>440</v>
+        <v>395</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6062,49 +5357,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="D22" s="7">
-        <v>42041</v>
+        <v>146276</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>442</v>
+        <v>222</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>443</v>
+        <v>397</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>444</v>
+        <v>398</v>
       </c>
       <c r="H22" s="7">
-        <v>64</v>
+        <v>253</v>
       </c>
       <c r="I22" s="7">
-        <v>80071</v>
+        <v>299385</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>445</v>
+        <v>399</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>446</v>
+        <v>400</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>447</v>
+        <v>199</v>
       </c>
       <c r="M22" s="7">
-        <v>106</v>
+        <v>402</v>
       </c>
       <c r="N22" s="7">
-        <v>122111</v>
+        <v>445660</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>448</v>
+        <v>401</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>449</v>
+        <v>402</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>450</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,10 +5408,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D23" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -6128,10 +5423,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I23" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -6143,10 +5438,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N23" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -6159,222 +5454,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>2763</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2923923</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="H24" s="7">
-        <v>2641</v>
-      </c>
-      <c r="I24" s="7">
-        <v>2742531</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="M24" s="7">
-        <v>5404</v>
-      </c>
-      <c r="N24" s="7">
-        <v>5666454</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>319</v>
-      </c>
-      <c r="D25" s="7">
-        <v>324151</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="H25" s="7">
-        <v>444</v>
-      </c>
-      <c r="I25" s="7">
-        <v>502626</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="M25" s="7">
-        <v>763</v>
-      </c>
-      <c r="N25" s="7">
-        <v>826777</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>149</v>
-      </c>
-      <c r="D26" s="7">
-        <v>146276</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="H26" s="7">
-        <v>253</v>
-      </c>
-      <c r="I26" s="7">
-        <v>299385</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="M26" s="7">
-        <v>402</v>
-      </c>
-      <c r="N26" s="7">
-        <v>445660</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>177</v>
+      <c r="A24" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -6387,8 +5475,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76E9565-D91B-4C2C-ACF5-0E90087DB3DD}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962EFF93-7F35-4BAF-840E-C357F4DAB700}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6404,7 +5492,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>474</v>
+        <v>404</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6505,49 +5593,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>84</v>
+        <v>589</v>
       </c>
       <c r="D4" s="7">
-        <v>74860</v>
+        <v>531146</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>475</v>
+        <v>405</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>476</v>
+        <v>406</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>477</v>
+        <v>382</v>
       </c>
       <c r="H4" s="7">
-        <v>161</v>
+        <v>894</v>
       </c>
       <c r="I4" s="7">
-        <v>94960</v>
+        <v>571753</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>478</v>
+        <v>407</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>479</v>
+        <v>408</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>480</v>
+        <v>409</v>
       </c>
       <c r="M4" s="7">
-        <v>245</v>
+        <v>1483</v>
       </c>
       <c r="N4" s="7">
-        <v>169820</v>
+        <v>1102899</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>481</v>
+        <v>410</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>482</v>
+        <v>411</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>483</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6556,49 +5644,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="D5" s="7">
-        <v>16622</v>
+        <v>63431</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>317</v>
+        <v>413</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>484</v>
+        <v>414</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>485</v>
+        <v>415</v>
       </c>
       <c r="H5" s="7">
-        <v>49</v>
+        <v>205</v>
       </c>
       <c r="I5" s="7">
-        <v>20655</v>
+        <v>91368</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>486</v>
+        <v>221</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>487</v>
+        <v>416</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>488</v>
+        <v>417</v>
       </c>
       <c r="M5" s="7">
-        <v>70</v>
+        <v>291</v>
       </c>
       <c r="N5" s="7">
-        <v>37277</v>
+        <v>154800</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>489</v>
+        <v>418</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>490</v>
+        <v>419</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>491</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6607,49 +5695,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D6" s="7">
-        <v>10500</v>
+        <v>40864</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>492</v>
+        <v>421</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>493</v>
+        <v>422</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>494</v>
+        <v>423</v>
       </c>
       <c r="H6" s="7">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="I6" s="7">
-        <v>15118</v>
+        <v>62209</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>487</v>
+        <v>390</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>495</v>
+        <v>424</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>496</v>
+        <v>425</v>
       </c>
       <c r="M6" s="7">
-        <v>46</v>
+        <v>197</v>
       </c>
       <c r="N6" s="7">
-        <v>25618</v>
+        <v>103073</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>497</v>
+        <v>426</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>498</v>
+        <v>203</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>241</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6658,10 +5746,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D7" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -6673,10 +5761,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>243</v>
+        <v>1241</v>
       </c>
       <c r="I7" s="7">
-        <v>130733</v>
+        <v>725330</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -6688,10 +5776,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>361</v>
+        <v>1971</v>
       </c>
       <c r="N7" s="7">
-        <v>232715</v>
+        <v>1360772</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -6711,49 +5799,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>505</v>
+        <v>834</v>
       </c>
       <c r="D8" s="7">
-        <v>467517</v>
+        <v>841338</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>499</v>
+        <v>428</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>500</v>
+        <v>429</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>501</v>
+        <v>335</v>
       </c>
       <c r="H8" s="7">
-        <v>733</v>
+        <v>1123</v>
       </c>
       <c r="I8" s="7">
-        <v>490651</v>
+        <v>749476</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>502</v>
+        <v>430</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>503</v>
+        <v>431</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>504</v>
+        <v>432</v>
       </c>
       <c r="M8" s="7">
-        <v>1238</v>
+        <v>1957</v>
       </c>
       <c r="N8" s="7">
-        <v>958167</v>
+        <v>1590815</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>505</v>
+        <v>433</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>506</v>
+        <v>434</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>507</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6762,49 +5850,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D9" s="7">
-        <v>49428</v>
+        <v>318553</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>508</v>
+        <v>436</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>509</v>
+        <v>437</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>510</v>
+        <v>438</v>
       </c>
       <c r="H9" s="7">
-        <v>156</v>
+        <v>258</v>
       </c>
       <c r="I9" s="7">
-        <v>77105</v>
+        <v>138591</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>511</v>
+        <v>439</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>512</v>
+        <v>440</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>513</v>
+        <v>441</v>
       </c>
       <c r="M9" s="7">
-        <v>221</v>
+        <v>340</v>
       </c>
       <c r="N9" s="7">
-        <v>126532</v>
+        <v>457144</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>514</v>
+        <v>443</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>204</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6813,49 +5901,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D10" s="7">
-        <v>32879</v>
+        <v>32973</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>515</v>
+        <v>445</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>516</v>
+        <v>446</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>517</v>
+        <v>95</v>
       </c>
       <c r="H10" s="7">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="I10" s="7">
-        <v>52211</v>
+        <v>70039</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>518</v>
+        <v>447</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>519</v>
+        <v>448</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>520</v>
+        <v>449</v>
       </c>
       <c r="M10" s="7">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="N10" s="7">
-        <v>85090</v>
+        <v>103012</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>521</v>
+        <v>120</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>145</v>
+        <v>450</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>522</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6864,10 +5952,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D11" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -6879,10 +5967,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>998</v>
+        <v>1516</v>
       </c>
       <c r="I11" s="7">
-        <v>619967</v>
+        <v>958106</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -6894,10 +5982,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1610</v>
+        <v>2480</v>
       </c>
       <c r="N11" s="7">
-        <v>1169790</v>
+        <v>2150971</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -6917,49 +6005,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>834</v>
+        <v>538</v>
       </c>
       <c r="D12" s="7">
-        <v>873234</v>
+        <v>579804</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>523</v>
+        <v>451</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>524</v>
+        <v>452</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>525</v>
+        <v>453</v>
       </c>
       <c r="H12" s="7">
-        <v>1123</v>
+        <v>784</v>
       </c>
       <c r="I12" s="7">
-        <v>828639</v>
+        <v>784864</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>526</v>
+        <v>454</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>527</v>
+        <v>455</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>528</v>
+        <v>456</v>
       </c>
       <c r="M12" s="7">
-        <v>1957</v>
+        <v>1322</v>
       </c>
       <c r="N12" s="7">
-        <v>1701873</v>
+        <v>1364669</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>529</v>
+        <v>412</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>530</v>
+        <v>457</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>531</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6968,49 +6056,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="D13" s="7">
-        <v>130025</v>
+        <v>97272</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>532</v>
+        <v>459</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>533</v>
+        <v>196</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>534</v>
+        <v>460</v>
       </c>
       <c r="H13" s="7">
-        <v>258</v>
+        <v>181</v>
       </c>
       <c r="I13" s="7">
-        <v>153137</v>
+        <v>101525</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>535</v>
+        <v>461</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>536</v>
+        <v>462</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>537</v>
+        <v>463</v>
       </c>
       <c r="M13" s="7">
-        <v>340</v>
+        <v>288</v>
       </c>
       <c r="N13" s="7">
-        <v>283162</v>
+        <v>198797</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>538</v>
+        <v>176</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>397</v>
+        <v>464</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>539</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7019,49 +6107,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D14" s="7">
-        <v>35989</v>
+        <v>27604</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>540</v>
+        <v>466</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>541</v>
+        <v>445</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>542</v>
+        <v>402</v>
       </c>
       <c r="H14" s="7">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="I14" s="7">
-        <v>77698</v>
+        <v>46976</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>543</v>
+        <v>398</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>174</v>
+        <v>467</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>544</v>
+        <v>329</v>
       </c>
       <c r="M14" s="7">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="N14" s="7">
-        <v>113688</v>
+        <v>74580</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>89</v>
+        <v>249</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>545</v>
+        <v>468</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7070,10 +6158,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D15" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -7085,10 +6173,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>1516</v>
+        <v>1047</v>
       </c>
       <c r="I15" s="7">
-        <v>1059474</v>
+        <v>933366</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -7100,10 +6188,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>2480</v>
+        <v>1723</v>
       </c>
       <c r="N15" s="7">
-        <v>2098722</v>
+        <v>1638046</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -7117,55 +6205,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>538</v>
+        <v>824</v>
       </c>
       <c r="D16" s="7">
-        <v>597101</v>
+        <v>790720</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>546</v>
+        <v>469</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>547</v>
+        <v>470</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>548</v>
+        <v>471</v>
       </c>
       <c r="H16" s="7">
-        <v>784</v>
+        <v>1128</v>
       </c>
       <c r="I16" s="7">
-        <v>711867</v>
+        <v>849777</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>432</v>
+        <v>472</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>549</v>
+        <v>473</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>550</v>
+        <v>474</v>
       </c>
       <c r="M16" s="7">
-        <v>1322</v>
+        <v>1952</v>
       </c>
       <c r="N16" s="7">
-        <v>1308967</v>
+        <v>1640497</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>551</v>
+        <v>475</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>210</v>
+        <v>476</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>552</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7174,49 +6262,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="D17" s="7">
-        <v>102099</v>
+        <v>96239</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>553</v>
+        <v>478</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>225</v>
+        <v>479</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>554</v>
+        <v>480</v>
       </c>
       <c r="H17" s="7">
-        <v>181</v>
+        <v>278</v>
       </c>
       <c r="I17" s="7">
-        <v>110210</v>
+        <v>157536</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>271</v>
+        <v>481</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>555</v>
+        <v>482</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>556</v>
+        <v>483</v>
       </c>
       <c r="M17" s="7">
-        <v>288</v>
+        <v>403</v>
       </c>
       <c r="N17" s="7">
-        <v>212309</v>
+        <v>253775</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>557</v>
+        <v>321</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>558</v>
+        <v>484</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>559</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7225,49 +6313,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D18" s="7">
-        <v>29572</v>
+        <v>39872</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>144</v>
+        <v>486</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>560</v>
+        <v>375</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>561</v>
+        <v>487</v>
       </c>
       <c r="H18" s="7">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="I18" s="7">
-        <v>52294</v>
+        <v>87620</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>515</v>
+        <v>251</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>562</v>
+        <v>488</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>563</v>
+        <v>489</v>
       </c>
       <c r="M18" s="7">
-        <v>113</v>
+        <v>213</v>
       </c>
       <c r="N18" s="7">
-        <v>81866</v>
+        <v>127492</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>22</v>
+        <v>488</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>564</v>
+        <v>490</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>565</v>
+        <v>491</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7276,10 +6364,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D19" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -7291,10 +6379,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>1047</v>
+        <v>1562</v>
       </c>
       <c r="I19" s="7">
-        <v>874371</v>
+        <v>1094932</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -7306,10 +6394,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1723</v>
+        <v>2568</v>
       </c>
       <c r="N19" s="7">
-        <v>1603142</v>
+        <v>2021763</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -7323,55 +6411,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>824</v>
+        <v>2785</v>
       </c>
       <c r="D20" s="7">
-        <v>821057</v>
+        <v>2743009</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>566</v>
+        <v>492</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>568</v>
+        <v>494</v>
       </c>
       <c r="H20" s="7">
-        <v>1128</v>
+        <v>3929</v>
       </c>
       <c r="I20" s="7">
-        <v>872598</v>
+        <v>2955870</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>569</v>
+        <v>495</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>570</v>
+        <v>497</v>
       </c>
       <c r="M20" s="7">
-        <v>1952</v>
+        <v>6714</v>
       </c>
       <c r="N20" s="7">
-        <v>1693656</v>
+        <v>5698879</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>571</v>
+        <v>498</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>572</v>
+        <v>499</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>573</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7380,49 +6468,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>125</v>
+        <v>400</v>
       </c>
       <c r="D21" s="7">
-        <v>101737</v>
+        <v>575495</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>574</v>
+        <v>460</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>522</v>
+        <v>162</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>575</v>
+        <v>501</v>
       </c>
       <c r="H21" s="7">
-        <v>278</v>
+        <v>922</v>
       </c>
       <c r="I21" s="7">
-        <v>177917</v>
+        <v>489021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>576</v>
+        <v>502</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>577</v>
+        <v>503</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>578</v>
+        <v>417</v>
       </c>
       <c r="M21" s="7">
-        <v>403</v>
+        <v>1322</v>
       </c>
       <c r="N21" s="7">
-        <v>279655</v>
+        <v>1064516</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>579</v>
+        <v>504</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>580</v>
+        <v>505</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>581</v>
+        <v>506</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7431,49 +6519,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>57</v>
+        <v>191</v>
       </c>
       <c r="D22" s="7">
-        <v>42609</v>
+        <v>141313</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>582</v>
+        <v>507</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>583</v>
+        <v>88</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>584</v>
+        <v>422</v>
       </c>
       <c r="H22" s="7">
-        <v>156</v>
+        <v>515</v>
       </c>
       <c r="I22" s="7">
-        <v>99916</v>
+        <v>266844</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>585</v>
+        <v>508</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>543</v>
+        <v>509</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>586</v>
+        <v>367</v>
       </c>
       <c r="M22" s="7">
-        <v>213</v>
+        <v>706</v>
       </c>
       <c r="N22" s="7">
-        <v>142525</v>
+        <v>408157</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>587</v>
+        <v>510</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>588</v>
+        <v>511</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>589</v>
+        <v>512</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7482,10 +6570,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="D23" s="7">
-        <v>965403</v>
+        <v>3459817</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -7497,10 +6585,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>1562</v>
+        <v>5366</v>
       </c>
       <c r="I23" s="7">
-        <v>1150432</v>
+        <v>3711735</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -7512,10 +6600,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>2568</v>
+        <v>8742</v>
       </c>
       <c r="N23" s="7">
-        <v>2115835</v>
+        <v>7171552</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -7528,222 +6616,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>2785</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2833769</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="H24" s="7">
-        <v>3929</v>
-      </c>
-      <c r="I24" s="7">
-        <v>2998714</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="M24" s="7">
-        <v>6714</v>
-      </c>
-      <c r="N24" s="7">
-        <v>5832483</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>400</v>
-      </c>
-      <c r="D25" s="7">
-        <v>399910</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="H25" s="7">
-        <v>922</v>
-      </c>
-      <c r="I25" s="7">
-        <v>539024</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="M25" s="7">
-        <v>1322</v>
-      </c>
-      <c r="N25" s="7">
-        <v>938934</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>191</v>
-      </c>
-      <c r="D26" s="7">
-        <v>151549</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="H26" s="7">
-        <v>515</v>
-      </c>
-      <c r="I26" s="7">
-        <v>297238</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="M26" s="7">
-        <v>706</v>
-      </c>
-      <c r="N26" s="7">
-        <v>448787</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3376</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>5366</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3834976</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>8742</v>
-      </c>
-      <c r="N27" s="7">
-        <v>7220204</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>177</v>
+      <c r="A24" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
